--- a/biology/Médecine/Caractère_(psychologie)/Caractère_(psychologie).xlsx
+++ b/biology/Médecine/Caractère_(psychologie)/Caractère_(psychologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caract%C3%A8re_(psychologie)</t>
+          <t>Caractère_(psychologie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le caractère d'une personne résume la manière dont cette personne réagit habituellement dans une situation donnée. On dit alors qu'elle possède tel ou tel trait de caractère. Par exemple, on dit d'une personne qui aime faire plaisir aux autres qu'elle est généreuse, altruiste. Quelqu'un qui tient rigueur aux autres pendant longtemps de leurs griefs à son encontre sera qualifié de rancunier.
 L'étude du caractère est la caractérologie. Ce domaine est tombé en désuétude dans la recherche expérimentale, où on s'appuie aujourd'hui plutôt sur le concept de personnalité. L'étude du caractère reste toutefois explorée dans le privé (associations et entreprises) à un niveau empirique, la plupart du temps sur la base du traité de Le Senne.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caract%C3%A8re_(psychologie)</t>
+          <t>Caractère_(psychologie)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Psychologie commune</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On distingue traditionnellement des caractères forts et d'autres plus faibles ; la force d'un caractère étant l'aptitude à maintenir ses choix en dépit des événements et autres facteurs contraires rencontrés (adversité). Inversement on considère qu'une personne de faible caractère sera facilement entraînée dans des situations qu'elle subira et dont finalement elle pâtira.
 La polarité fort/faible croise la distinction mauvais caractère/bon caractère qui traduit davantage le mode d'expression de l'individu en particulier dans ses rapports aux autres. On peut penser qu'un caractère fort s'accompagne d'un mauvais caractère, mais toutes les formes d'exception sont possibles, d'autant que cette dureté d'expression peut être une stratégie défavorable au but poursuivi.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Caract%C3%A8re_(psychologie)</t>
+          <t>Caractère_(psychologie)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Culture du caractère</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">« J'aime mieux forger mon âme que la meubler » Montaigne
 Sensible au potentiel de réalisation que donnerait le caractère, des hommes et des cultures entières sont portés ici ou là à promouvoir la culture du caractère, la résistance de la volonté aux obstacles intérieurs encore plus qu'extérieurs. Citons aussi Pierre de Coubertin : « L’indispensable nécessité de la Culture Physique et de la Culture du Caractère n’exclut pas la formation de l’intelligence et de la sensibilité. Il s’agit d’un tout harmonieux. »
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Caract%C3%A8re_(psychologie)</t>
+          <t>Caractère_(psychologie)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Le « caractère », les « troubles du caractère » en psychopathologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En psychopathologie, la caractérologie remonte historiquement aux grands courants de la psychiatrie: pour les morphologistes, le plus connu est Ernst Kretschmer qui avait défini le pycnique, le leptosome et l'athlétique avec leur particularité propre (par exemple sychizoïdie pour le leptosome, etc.).
 </t>
